--- a/Project documents/Vergaderingen/vergadering_26-9-2016.xlsx
+++ b/Project documents/Vergaderingen/vergadering_26-9-2016.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\Documents\GitHub\Barroc-it-groep5\barroc-it-groep-5\Project documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Radiuscollege_2016-2017-2\barroc-it\barroc-it-groep-5\Project documents\Vergaderingen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="Vergadering1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vergadering2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -102,8 +102,90 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Fer</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Vul hier onderwerp (bijv. Naam Project) en groep in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Vul hier ook eindtijd in. Bepaal deze a.d.h.v. cel C18.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Vul  hier ook de naam van je projectbegeleider en/of SLB in.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>wie</t>
   </si>
@@ -181,6 +263,15 @@
   </si>
   <si>
     <t xml:space="preserve"> AGENDA Barroc-IT Groep 5</t>
+  </si>
+  <si>
+    <t>Mededelingen?</t>
+  </si>
+  <si>
+    <t>Voortgang project?</t>
+  </si>
+  <si>
+    <t>Inhaalslag plannen.</t>
   </si>
 </sst>
 </file>
@@ -888,27 +979,27 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.75" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -918,7 +1009,7 @@
       <c r="H2" s="54"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="55" t="s">
         <v>17</v>
       </c>
@@ -932,7 +1023,7 @@
       <c r="H3" s="60"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="67" t="s">
         <v>23</v>
       </c>
@@ -944,7 +1035,7 @@
       <c r="H4" s="63"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="70" t="s">
         <v>19</v>
       </c>
@@ -956,7 +1047,7 @@
       <c r="H5" s="66"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
@@ -974,7 +1065,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -984,7 +1075,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
@@ -1001,7 +1092,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
@@ -1016,7 +1107,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="22" t="s">
@@ -1032,7 +1123,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="22"/>
@@ -1043,7 +1134,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="22"/>
@@ -1055,7 +1146,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="22"/>
@@ -1067,7 +1158,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="22"/>
@@ -1079,7 +1170,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="22"/>
@@ -1091,7 +1182,7 @@
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="13"/>
       <c r="D16" s="22" t="s">
@@ -1107,7 +1198,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -1116,7 +1207,7 @@
       <c r="G17" s="30"/>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="32"/>
       <c r="C18" s="33">
         <f>SUM(C8:C17)</f>
@@ -1134,7 +1225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="33"/>
       <c r="D19" s="38" t="s">
@@ -1149,7 +1240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="33"/>
       <c r="D20" s="38" t="s">
@@ -1162,7 +1253,7 @@
       <c r="G20" s="39"/>
       <c r="H20" s="40"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="33"/>
       <c r="D21" s="38" t="s">
@@ -1175,7 +1266,7 @@
       <c r="G21" s="39"/>
       <c r="H21" s="40"/>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
       <c r="D22" s="43" t="s">
@@ -1188,12 +1279,12 @@
       <c r="G22" s="45"/>
       <c r="H22" s="46"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="47"/>
       <c r="E25" s="4">
         <v>1</v>
@@ -1201,7 +1292,7 @@
       <c r="F25" s="48"/>
       <c r="I25" s="49"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="E26" s="4">
         <v>2</v>
@@ -1209,7 +1300,7 @@
       <c r="F26" s="21"/>
       <c r="I26" s="49"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="E27" s="4">
         <v>3</v>
@@ -1217,7 +1308,7 @@
       <c r="F27" s="23"/>
       <c r="I27" s="49"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4">
@@ -1228,14 +1319,14 @@
       <c r="H28" s="50"/>
       <c r="I28" s="51"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="E29" s="4">
         <v>5</v>
       </c>
       <c r="I29" s="49"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="E30" s="4">
         <v>6</v>
@@ -1243,7 +1334,7 @@
       <c r="F30" s="48"/>
       <c r="I30" s="49"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="E31" s="4">
         <v>7</v>
@@ -1251,18 +1342,18 @@
       <c r="F31" s="48"/>
       <c r="I31" s="49"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="F32" s="48"/>
       <c r="I32" s="49"/>
     </row>
-    <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I33" s="49"/>
     </row>
-    <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="4">
         <v>1</v>
       </c>
@@ -1272,7 +1363,7 @@
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
     </row>
-    <row r="35" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="4">
         <v>2</v>
       </c>
@@ -1282,7 +1373,7 @@
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="4">
         <v>3</v>
       </c>
@@ -1291,76 +1382,76 @@
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
     </row>
-    <row r="37" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I60" s="5"/>
     </row>
   </sheetData>
@@ -1378,14 +1469,494 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.75" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="15">
+        <v>3</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="15">
+        <v>4</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="15">
+        <v>5</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="15">
+        <v>6</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="15">
+        <v>7</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="15">
+        <v>9</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="32"/>
+      <c r="C18" s="33">
+        <f>SUM(C8:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="37"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="37"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="47"/>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="I26" s="49"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="I27" s="49"/>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4">
+        <v>4</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="I29" s="49"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="E30" s="4">
+        <v>6</v>
+      </c>
+      <c r="F30" s="48"/>
+      <c r="I30" s="49"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="E31" s="4">
+        <v>7</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="I31" s="49"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="F32" s="48"/>
+      <c r="I32" s="49"/>
+    </row>
+    <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="49"/>
+    </row>
+    <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+    </row>
+    <row r="36" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="4">
+        <v>3</v>
+      </c>
+      <c r="I36" s="49"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+    </row>
+    <row r="37" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="5:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1395,25 +1966,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1466,6 +2037,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1475,14 +2054,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Project documents/Vergaderingen/vergadering_26-9-2016.xlsx
+++ b/Project documents/Vergaderingen/vergadering_26-9-2016.xlsx
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>wie</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Inhaalslag plannen.</t>
+  </si>
+  <si>
+    <t>Werkflow programmeren</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1476,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,6 +1626,9 @@
       <c r="E11" s="15">
         <v>4</v>
       </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" s="24"/>
       <c r="H11" s="25"/>
       <c r="I11" s="19"/>
@@ -1973,21 +1979,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -2036,10 +2027,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2059,16 +2072,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>